--- a/Excel/JiaYuanFarmConfig.xlsx
+++ b/Excel/JiaYuanFarmConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9282A47C-FF8B-40D7-95E5-C44E3037ADD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9E4E13-0959-4DB9-B412-0F896F3B6190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanFarmProto" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>14400;43200;129600;172800</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>PeopleNum</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -457,6 +453,9 @@
   <si>
     <t>模型ID</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>14400,43200,129600,172800</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1704,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1736,6 +1735,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="17" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2385,7 +2387,7 @@
   <dimension ref="C1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2415,28 +2417,28 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2450,28 +2452,28 @@
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2500,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>3</v>
@@ -2514,7 +2516,7 @@
         <v>100101</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>5</v>
@@ -2522,26 +2524,26 @@
       <c r="F6" s="5">
         <v>100101</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
+      <c r="G6" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H6" s="8">
         <v>5</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="K6" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2549,7 +2551,7 @@
         <v>100201</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
@@ -2557,26 +2559,26 @@
       <c r="F7" s="5">
         <v>100201</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
+      <c r="G7" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H7" s="8">
         <v>10</v>
       </c>
       <c r="I7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="K7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2584,34 +2586,34 @@
         <v>100301</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="F8" s="5">
         <v>100301</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
+      <c r="G8" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H8" s="8">
         <v>15</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,34 +2621,34 @@
         <v>100401</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="F9" s="5">
         <v>100401</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
+      <c r="G9" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H9" s="8">
         <v>20</v>
       </c>
       <c r="I9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="K9" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2654,34 +2656,34 @@
         <v>100501</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="F10" s="5">
         <v>100501</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
+      <c r="G10" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H10" s="8">
         <v>25</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="K10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2689,34 +2691,34 @@
         <v>100601</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="F11" s="5">
         <v>100601</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
+      <c r="G11" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H11" s="8">
         <v>30</v>
       </c>
       <c r="I11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="K11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2724,34 +2726,34 @@
         <v>100701</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="F12" s="5">
         <v>100701</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
+      <c r="G12" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H12" s="8">
         <v>35</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="K12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2759,34 +2761,34 @@
         <v>100801</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="F13" s="5">
         <v>100801</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
+      <c r="G13" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H13" s="8">
         <v>40</v>
       </c>
       <c r="I13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="K13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2794,34 +2796,34 @@
         <v>100901</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="F14" s="5">
         <v>100901</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
+      <c r="G14" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H14" s="8">
         <v>45</v>
       </c>
       <c r="I14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="K14" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2829,34 +2831,34 @@
         <v>101001</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="F15" s="5">
         <v>101001</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
+      <c r="G15" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H15" s="8">
         <v>50</v>
       </c>
       <c r="I15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="K15" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2864,34 +2866,34 @@
         <v>101101</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="F16" s="5">
         <v>101101</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
+      <c r="G16" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H16" s="8">
         <v>50</v>
       </c>
       <c r="I16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="K16" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2899,34 +2901,34 @@
         <v>101201</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="F17" s="5">
         <v>101201</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
+      <c r="G17" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H17" s="8">
         <v>50</v>
       </c>
       <c r="I17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="K17" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2934,34 +2936,34 @@
         <v>101301</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="F18" s="5">
         <v>101301</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
+      <c r="G18" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H18" s="8">
         <v>50</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="K18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2969,34 +2971,34 @@
         <v>101401</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="F19" s="5">
         <v>101401</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
+      <c r="G19" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H19" s="8">
         <v>50</v>
       </c>
       <c r="I19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="K19" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/JiaYuanFarmConfig.xlsx
+++ b/Excel/JiaYuanFarmConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9E4E13-0959-4DB9-B412-0F896F3B6190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7562E76D-EC36-4F9F-AAFD-369C0B8ED5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>Id</t>
   </si>
@@ -167,72 +167,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>2600</t>
-  </si>
-  <si>
-    <t>5200</t>
-  </si>
-  <si>
-    <t>3100</t>
-  </si>
-  <si>
-    <t>5600</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>6800</t>
-  </si>
-  <si>
-    <t>10400</t>
-  </si>
-  <si>
-    <t>7800</t>
-  </si>
-  <si>
-    <t>11200</t>
-  </si>
-  <si>
-    <t>12600</t>
-  </si>
-  <si>
-    <t>16800</t>
-  </si>
-  <si>
-    <t>14400</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>19800</t>
-  </si>
-  <si>
-    <t>24800</t>
-  </si>
-  <si>
-    <t>20800</t>
-  </si>
-  <si>
-    <t>26000</t>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -243,92 +177,6 @@
   <si>
     <t>Des</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>咕咕咕……</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘎嘎嘎……</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>咯咯哒……咯咯哒……</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>你看见我的耳朵了嘛？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>在哪里有吃的呢</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打扰我,我要睡一会儿</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>哞哞……</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>咩……</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的牙齿可是很坚的喔~</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>别挤了,我真的没奶了!</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>我想变成一只战斗山羊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们来比赛赛跑吧?</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>44000001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>44000002</t>
-  </si>
-  <si>
-    <t>44000003</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>44000004</t>
-  </si>
-  <si>
-    <t>44000005</t>
-  </si>
-  <si>
-    <t>44000006</t>
-  </si>
-  <si>
-    <t>44000007</t>
-  </si>
-  <si>
-    <t>44000008</t>
-  </si>
-  <si>
-    <t>44000009</t>
-  </si>
-  <si>
-    <t>44000010</t>
-  </si>
-  <si>
-    <t>44000011</t>
-  </si>
-  <si>
-    <t>44000012</t>
   </si>
   <si>
     <t>收获道具ID</t>
@@ -455,7 +303,90 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>14400,43200,129600,172800</t>
+    <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗖嗖嗖……</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟时可获得:葱</t>
+  </si>
+  <si>
+    <t>成熟时可获得:蒜</t>
+  </si>
+  <si>
+    <t>成熟时可获得:胡萝卜</t>
+  </si>
+  <si>
+    <t>成熟时可获得:红萝卜</t>
+  </si>
+  <si>
+    <t>成熟时可获得:红薯</t>
+  </si>
+  <si>
+    <t>成熟时可获得:包菜</t>
+  </si>
+  <si>
+    <t>成熟时可获得:土豆</t>
+  </si>
+  <si>
+    <t>成熟时可获得:西瓜</t>
+  </si>
+  <si>
+    <t>成熟时可获得:南瓜</t>
+  </si>
+  <si>
+    <t>成熟时可获得:黄瓜</t>
+  </si>
+  <si>
+    <t>成熟时可获得:西红柿</t>
+  </si>
+  <si>
+    <t>成熟时可获得:小麦</t>
+  </si>
+  <si>
+    <t>成熟时可获得:玉米</t>
+  </si>
+  <si>
+    <t>成熟时可获得:向日葵</t>
+  </si>
+  <si>
+    <t>5760,14400,34560,69120</t>
+  </si>
+  <si>
+    <t>7200,18000,43200,86400</t>
+  </si>
+  <si>
+    <t>8640,21600,51840,103680</t>
+  </si>
+  <si>
+    <t>10080,25200,60480,120960</t>
+  </si>
+  <si>
+    <t>11520,28800,69120,138240</t>
+  </si>
+  <si>
+    <t>12960,32400,77760,155520</t>
+  </si>
+  <si>
+    <t>14400,36000,86400,172800</t>
+  </si>
+  <si>
+    <t>15840,39600,95040,190080</t>
+  </si>
+  <si>
+    <t>17280,43200,103680,207360</t>
+  </si>
+  <si>
+    <t>18720,46800,112320,224640</t>
+  </si>
+  <si>
+    <t>20160,50400,120960,241920</t>
+  </si>
+  <si>
+    <t>21600,54000,129600,259200</t>
   </si>
 </sst>
 </file>
@@ -565,7 +496,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,8 +599,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291024"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -770,6 +707,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1704,7 +1656,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1738,6 +1690,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2387,14 +2348,14 @@
   <dimension ref="C1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="12" width="16.75" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
@@ -2417,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
@@ -2432,13 +2393,13 @@
         <v>15</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2452,7 +2413,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
@@ -2467,13 +2428,13 @@
         <v>17</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2502,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>3</v>
@@ -2516,7 +2477,7 @@
         <v>100101</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>5</v>
@@ -2525,25 +2486,25 @@
         <v>100101</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="H6" s="8">
-        <v>5</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1000</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="K6" s="14">
+        <v>10033001</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2551,7 +2512,7 @@
         <v>100201</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
@@ -2560,25 +2521,26 @@
         <v>100201</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="H7" s="8">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" ref="I7:I11" si="0">I6+200</f>
+        <v>1200</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="K7" s="14">
+        <v>10033002</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2586,34 +2548,35 @@
         <v>100301</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5">
         <v>100301</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="H8" s="8">
-        <v>15</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>1400</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="K8" s="14">
+        <v>10033003</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2621,34 +2584,35 @@
         <v>100401</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="F9" s="5">
         <v>100401</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="H9" s="8">
-        <v>20</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>1600</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="K9" s="14">
+        <v>10033004</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2656,34 +2620,35 @@
         <v>100501</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5">
         <v>100501</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="H10" s="8">
-        <v>25</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>1800</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="K10" s="14">
+        <v>10033005</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2691,34 +2656,35 @@
         <v>100601</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5">
         <v>100601</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="H11" s="8">
-        <v>30</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="K11" s="14">
+        <v>10033006</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2726,34 +2692,35 @@
         <v>100701</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5">
         <v>100701</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H12" s="8">
-        <v>35</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
+        <f>I11+300</f>
+        <v>2300</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="K12" s="14">
+        <v>10033007</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2761,34 +2728,35 @@
         <v>100801</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5">
         <v>100801</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H13" s="8">
-        <v>40</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
+        <f>I12+300</f>
+        <v>2600</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="K13" s="14">
+        <v>10033008</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2796,34 +2764,35 @@
         <v>100901</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F14" s="5">
         <v>100901</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H14" s="8">
-        <v>45</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" ref="I14:I19" si="1">I13+400</f>
+        <v>3000</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="K14" s="14">
+        <v>10033009</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2831,34 +2800,35 @@
         <v>101001</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="F15" s="5">
         <v>101001</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H15" s="8">
-        <v>50</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="1"/>
+        <v>3400</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="K15" s="14">
+        <v>10033010</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2866,34 +2836,35 @@
         <v>101101</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F16" s="5">
         <v>101101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H16" s="8">
-        <v>50</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="1"/>
+        <v>3800</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="K16" s="14">
+        <v>10033011</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>53</v>
+      <c r="M16" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2901,34 +2872,35 @@
         <v>101201</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5">
         <v>101201</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="H17" s="8">
-        <v>50</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="1"/>
+        <v>4200</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="K17" s="14">
+        <v>10033012</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2936,34 +2908,35 @@
         <v>101301</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="F18" s="5">
         <v>101301</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="H18" s="8">
-        <v>50</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="1"/>
+        <v>4600</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="14">
+        <v>10033013</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2971,34 +2944,35 @@
         <v>101401</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F19" s="5">
         <v>101401</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H19" s="8">
-        <v>50</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="1"/>
+        <v>5000</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="K19" s="14">
+        <v>10033014</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/JiaYuanFarmConfig.xlsx
+++ b/Excel/JiaYuanFarmConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE555AE4-6A0A-42A7-ABCB-B78D1823E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636BE5D1-F1A5-411A-AEC1-ABF9541198A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanFarmProto" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -406,6 +406,10 @@
   </si>
   <si>
     <t>GetItemNum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100901</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1624,7 +1628,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1649,9 +1653,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2300,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2482,7 +2483,7 @@
       <c r="N6" s="9">
         <v>11520</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2524,7 +2525,7 @@
       <c r="N7" s="9">
         <v>14400</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2566,7 +2567,7 @@
       <c r="N8" s="9">
         <v>17280</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2608,7 +2609,7 @@
       <c r="N9" s="9">
         <v>20160</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2650,7 +2651,7 @@
       <c r="N10" s="9">
         <v>23040</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2692,7 +2693,7 @@
       <c r="N11" s="9">
         <v>25920</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2734,7 +2735,7 @@
       <c r="N12" s="9">
         <v>28800</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2776,7 +2777,7 @@
       <c r="N13" s="9">
         <v>31680</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2790,8 +2791,8 @@
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="4">
-        <v>100901</v>
+      <c r="F14" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>60</v>
@@ -2818,7 +2819,7 @@
       <c r="N14" s="9">
         <v>31680</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2860,7 +2861,7 @@
       <c r="N15" s="9">
         <v>34560</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2902,7 +2903,7 @@
       <c r="N16" s="9">
         <v>34560</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2944,7 +2945,7 @@
       <c r="N17" s="9">
         <v>37440</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2986,7 +2987,7 @@
       <c r="N18" s="9">
         <v>40320</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <v>3</v>
       </c>
     </row>
@@ -3028,7 +3029,7 @@
       <c r="N19" s="9">
         <v>43200</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <v>3</v>
       </c>
     </row>

--- a/Excel/JiaYuanFarmConfig.xlsx
+++ b/Excel/JiaYuanFarmConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636BE5D1-F1A5-411A-AEC1-ABF9541198A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642489D-DAF5-49D8-B0FF-5832B47CB44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,9 +293,6 @@
     <t>成熟时可获得:向日葵</t>
   </si>
   <si>
-    <t>5760,14400,34560,69120</t>
-  </si>
-  <si>
     <t>7200,18000,43200,86400</t>
   </si>
   <si>
@@ -410,6 +407,10 @@
   </si>
   <si>
     <t>100901</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5760,14400,34560,69120</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2301,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2328,40 +2329,40 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2375,34 +2376,34 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="N4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2410,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
@@ -2434,16 +2435,16 @@
         <v>10</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2460,7 +2461,7 @@
         <v>100101</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -2501,7 +2502,7 @@
         <v>100201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -2543,7 +2544,7 @@
         <v>100301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -2585,7 +2586,7 @@
         <v>100401</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -2627,7 +2628,7 @@
         <v>100501</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -2669,7 +2670,7 @@
         <v>100601</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
@@ -2711,7 +2712,7 @@
         <v>100701</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -2753,7 +2754,7 @@
         <v>100801</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -2792,10 +2793,10 @@
         <v>26</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -2837,7 +2838,7 @@
         <v>101001</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -2879,7 +2880,7 @@
         <v>101101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -2921,7 +2922,7 @@
         <v>101201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -2963,7 +2964,7 @@
         <v>101301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -3005,7 +3006,7 @@
         <v>101401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>

--- a/Excel/JiaYuanFarmConfig.xlsx
+++ b/Excel/JiaYuanFarmConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642489D-DAF5-49D8-B0FF-5832B47CB44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB5107D-6A80-4718-94CC-C47455B4D953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanFarmProto" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>5760,14400,34560,69120</t>
+    <t>60,120,180,240</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2302,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2482,7 +2482,7 @@
         <v>39</v>
       </c>
       <c r="N6" s="9">
-        <v>11520</v>
+        <v>60</v>
       </c>
       <c r="O6" s="9">
         <v>3</v>

--- a/Excel/JiaYuanFarmConfig.xlsx
+++ b/Excel/JiaYuanFarmConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB5107D-6A80-4718-94CC-C47455B4D953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F0E74-914F-42B5-B8E9-6E36A3C26495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanFarmProto" sheetId="1" r:id="rId1"/>
@@ -410,8 +410,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>60,120,180,240</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>5760,14400,34560,69120</t>
   </si>
 </sst>
 </file>
@@ -2303,7 +2302,7 @@
   <dimension ref="C1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/JiaYuanFarmConfig.xlsx
+++ b/Excel/JiaYuanFarmConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F0E74-914F-42B5-B8E9-6E36A3C26495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205DA95E-CC06-424A-A5C6-E15E918E7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2301,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2481,7 +2481,7 @@
         <v>39</v>
       </c>
       <c r="N6" s="9">
-        <v>60</v>
+        <v>11520</v>
       </c>
       <c r="O6" s="9">
         <v>3</v>

--- a/Excel/JiaYuanFarmConfig.xlsx
+++ b/Excel/JiaYuanFarmConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205DA95E-CC06-424A-A5C6-E15E918E7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F3BA2-1D46-4BD1-BB08-55F17B2CF479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2302,7 +2302,7 @@
   <dimension ref="C1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2481,10 +2481,10 @@
         <v>39</v>
       </c>
       <c r="N6" s="9">
-        <v>11520</v>
+        <v>8640</v>
       </c>
       <c r="O6" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2523,10 +2523,10 @@
         <v>40</v>
       </c>
       <c r="N7" s="9">
-        <v>14400</v>
+        <v>10800</v>
       </c>
       <c r="O7" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2565,10 +2565,10 @@
         <v>41</v>
       </c>
       <c r="N8" s="9">
-        <v>17280</v>
+        <v>12960</v>
       </c>
       <c r="O8" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2607,10 +2607,10 @@
         <v>42</v>
       </c>
       <c r="N9" s="9">
-        <v>20160</v>
+        <v>15120</v>
       </c>
       <c r="O9" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2649,10 +2649,10 @@
         <v>43</v>
       </c>
       <c r="N10" s="9">
-        <v>23040</v>
+        <v>17280</v>
       </c>
       <c r="O10" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2691,10 +2691,10 @@
         <v>44</v>
       </c>
       <c r="N11" s="9">
-        <v>25920</v>
+        <v>19440</v>
       </c>
       <c r="O11" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2733,10 +2733,10 @@
         <v>45</v>
       </c>
       <c r="N12" s="9">
-        <v>28800</v>
+        <v>21600</v>
       </c>
       <c r="O12" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2775,10 +2775,10 @@
         <v>46</v>
       </c>
       <c r="N13" s="9">
-        <v>31680</v>
+        <v>23760</v>
       </c>
       <c r="O13" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2817,10 +2817,10 @@
         <v>47</v>
       </c>
       <c r="N14" s="9">
-        <v>31680</v>
+        <v>23760</v>
       </c>
       <c r="O14" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2859,10 +2859,10 @@
         <v>48</v>
       </c>
       <c r="N15" s="9">
-        <v>34560</v>
+        <v>25920</v>
       </c>
       <c r="O15" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2901,10 +2901,10 @@
         <v>49</v>
       </c>
       <c r="N16" s="9">
-        <v>34560</v>
+        <v>25920</v>
       </c>
       <c r="O16" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2943,10 +2943,10 @@
         <v>50</v>
       </c>
       <c r="N17" s="9">
-        <v>37440</v>
+        <v>28080</v>
       </c>
       <c r="O17" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2985,10 +2985,10 @@
         <v>51</v>
       </c>
       <c r="N18" s="9">
-        <v>40320</v>
+        <v>30240</v>
       </c>
       <c r="O18" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3027,10 +3027,10 @@
         <v>52</v>
       </c>
       <c r="N19" s="9">
-        <v>43200</v>
+        <v>32400</v>
       </c>
       <c r="O19" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/JiaYuanFarmConfig.xlsx
+++ b/Excel/JiaYuanFarmConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F3BA2-1D46-4BD1-BB08-55F17B2CF479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C6E0E-7F49-4C1D-B0B5-1C97274718DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>Id</t>
   </si>
@@ -311,21 +311,6 @@
     <t>14400,36000,86400,172800</t>
   </si>
   <si>
-    <t>15840,39600,95040,190080</t>
-  </si>
-  <si>
-    <t>17280,43200,103680,207360</t>
-  </si>
-  <si>
-    <t>18720,46800,112320,224640</t>
-  </si>
-  <si>
-    <t>20160,50400,120960,241920</t>
-  </si>
-  <si>
-    <t>21600,54000,129600,259200</t>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -411,6 +396,27 @@
   </si>
   <si>
     <t>5760,14400,34560,69120</t>
+  </si>
+  <si>
+    <t>4320,10800,25920,51840</t>
+  </si>
+  <si>
+    <t>5040,12600,30240,60480</t>
+  </si>
+  <si>
+    <t>6480,16200,38880,77760</t>
+  </si>
+  <si>
+    <t>7920,19800,47520,95040</t>
+  </si>
+  <si>
+    <t>9360,23400,56160,112320</t>
+  </si>
+  <si>
+    <t>10800,27000,64800,129600</t>
+  </si>
+  <si>
+    <t>12240,30600,73440,146880</t>
   </si>
 </sst>
 </file>
@@ -2302,7 +2308,7 @@
   <dimension ref="C1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2328,40 +2334,40 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2375,34 +2381,34 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2410,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
@@ -2434,16 +2440,16 @@
         <v>10</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2460,7 +2466,7 @@
         <v>100101</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -2481,7 +2487,7 @@
         <v>39</v>
       </c>
       <c r="N6" s="9">
-        <v>8640</v>
+        <v>6479.9999999999991</v>
       </c>
       <c r="O6" s="9">
         <v>4</v>
@@ -2501,7 +2507,7 @@
         <v>100201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -2523,7 +2529,7 @@
         <v>40</v>
       </c>
       <c r="N7" s="9">
-        <v>10800</v>
+        <v>7559.9999999999991</v>
       </c>
       <c r="O7" s="9">
         <v>4</v>
@@ -2543,7 +2549,7 @@
         <v>100301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -2565,7 +2571,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="9">
-        <v>12960</v>
+        <v>8640.0000000000018</v>
       </c>
       <c r="O8" s="9">
         <v>4</v>
@@ -2585,7 +2591,7 @@
         <v>100401</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -2607,7 +2613,7 @@
         <v>42</v>
       </c>
       <c r="N9" s="9">
-        <v>15120</v>
+        <v>9720</v>
       </c>
       <c r="O9" s="9">
         <v>4</v>
@@ -2627,7 +2633,7 @@
         <v>100501</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -2649,7 +2655,7 @@
         <v>43</v>
       </c>
       <c r="N10" s="9">
-        <v>17280</v>
+        <v>10800</v>
       </c>
       <c r="O10" s="9">
         <v>4</v>
@@ -2669,7 +2675,7 @@
         <v>100601</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
@@ -2691,7 +2697,7 @@
         <v>44</v>
       </c>
       <c r="N11" s="9">
-        <v>19440</v>
+        <v>11880.000000000002</v>
       </c>
       <c r="O11" s="9">
         <v>4</v>
@@ -2711,7 +2717,7 @@
         <v>100701</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -2733,7 +2739,7 @@
         <v>45</v>
       </c>
       <c r="N12" s="9">
-        <v>21600</v>
+        <v>12959.999999999998</v>
       </c>
       <c r="O12" s="9">
         <v>4</v>
@@ -2753,7 +2759,7 @@
         <v>100801</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -2775,7 +2781,7 @@
         <v>46</v>
       </c>
       <c r="N13" s="9">
-        <v>23760</v>
+        <v>14040.000000000002</v>
       </c>
       <c r="O13" s="9">
         <v>4</v>
@@ -2792,10 +2798,10 @@
         <v>26</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -2817,7 +2823,7 @@
         <v>47</v>
       </c>
       <c r="N14" s="9">
-        <v>23760</v>
+        <v>15119.999999999998</v>
       </c>
       <c r="O14" s="9">
         <v>4</v>
@@ -2837,7 +2843,7 @@
         <v>101001</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -2859,7 +2865,7 @@
         <v>48</v>
       </c>
       <c r="N15" s="9">
-        <v>25920</v>
+        <v>16200</v>
       </c>
       <c r="O15" s="9">
         <v>4</v>
@@ -2879,7 +2885,7 @@
         <v>101101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -2901,7 +2907,7 @@
         <v>49</v>
       </c>
       <c r="N16" s="9">
-        <v>25920</v>
+        <v>17280.000000000004</v>
       </c>
       <c r="O16" s="9">
         <v>4</v>
@@ -2921,7 +2927,7 @@
         <v>101201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -2943,7 +2949,7 @@
         <v>50</v>
       </c>
       <c r="N17" s="9">
-        <v>28080</v>
+        <v>18360</v>
       </c>
       <c r="O17" s="9">
         <v>4</v>
@@ -2963,7 +2969,7 @@
         <v>101301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -2985,7 +2991,7 @@
         <v>51</v>
       </c>
       <c r="N18" s="9">
-        <v>30240</v>
+        <v>19440</v>
       </c>
       <c r="O18" s="9">
         <v>4</v>
@@ -3005,7 +3011,7 @@
         <v>101401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -3027,7 +3033,7 @@
         <v>52</v>
       </c>
       <c r="N19" s="9">
-        <v>32400</v>
+        <v>21600</v>
       </c>
       <c r="O19" s="9">
         <v>4</v>
